--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2052,28 +2052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>522.9011168725228</v>
+        <v>583.7938685948931</v>
       </c>
       <c r="AB2" t="n">
-        <v>715.4563768741509</v>
+        <v>798.7725261793075</v>
       </c>
       <c r="AC2" t="n">
-        <v>647.174224414613</v>
+        <v>722.5387973650353</v>
       </c>
       <c r="AD2" t="n">
-        <v>522901.1168725229</v>
+        <v>583793.868594893</v>
       </c>
       <c r="AE2" t="n">
-        <v>715456.3768741509</v>
+        <v>798772.5261793075</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.45297388569112e-06</v>
+        <v>2.688382098057229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.46006944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>647174.224414613</v>
+        <v>722538.7973650353</v>
       </c>
     </row>
     <row r="3">
@@ -2158,28 +2158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.9497754908645</v>
+        <v>362.7321779455772</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.5599333131782</v>
+        <v>496.3061684794228</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.5633361689207</v>
+        <v>448.9394043298283</v>
       </c>
       <c r="AD3" t="n">
-        <v>313949.7754908645</v>
+        <v>362732.1779455772</v>
       </c>
       <c r="AE3" t="n">
-        <v>429559.9333131782</v>
+        <v>496306.1684794228</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.023533717041815e-06</v>
+        <v>3.744067166852637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.508680555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>388563.3361689207</v>
+        <v>448939.4043298283</v>
       </c>
     </row>
     <row r="4">
@@ -2264,28 +2264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.7156450343766</v>
+        <v>305.4127066345208</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.2496710308146</v>
+        <v>417.879139075032</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.7268954097481</v>
+        <v>377.9973405387654</v>
       </c>
       <c r="AD4" t="n">
-        <v>256715.6450343766</v>
+        <v>305412.7066345208</v>
       </c>
       <c r="AE4" t="n">
-        <v>351249.6710308146</v>
+        <v>417879.139075032</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.249677921183577e-06</v>
+        <v>4.162493152330639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.753472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>317726.8954097481</v>
+        <v>377997.3405387654</v>
       </c>
     </row>
     <row r="5">
@@ -2370,28 +2370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.977561785266</v>
+        <v>274.4791122802829</v>
       </c>
       <c r="AB5" t="n">
-        <v>325.6113988635047</v>
+        <v>375.5544305856961</v>
       </c>
       <c r="AC5" t="n">
-        <v>294.5355039545371</v>
+        <v>339.7120428245503</v>
       </c>
       <c r="AD5" t="n">
-        <v>237977.561785266</v>
+        <v>274479.1122802829</v>
       </c>
       <c r="AE5" t="n">
-        <v>325611.3988635047</v>
+        <v>375554.4305856961</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.339431856361995e-06</v>
+        <v>4.328561431286029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.495949074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>294535.5039545371</v>
+        <v>339712.0428245503</v>
       </c>
     </row>
     <row r="6">
@@ -2476,28 +2476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>238.7051380918448</v>
+        <v>275.2066885868617</v>
       </c>
       <c r="AB6" t="n">
-        <v>326.6069008645666</v>
+        <v>376.5499325867585</v>
       </c>
       <c r="AC6" t="n">
-        <v>295.4359966418137</v>
+        <v>340.6125355118271</v>
       </c>
       <c r="AD6" t="n">
-        <v>238705.1380918448</v>
+        <v>275206.6885868617</v>
       </c>
       <c r="AE6" t="n">
-        <v>326606.9008645666</v>
+        <v>376549.9325867585</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.339431856361995e-06</v>
+        <v>4.328561431286029e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.495949074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>295435.9966418137</v>
+        <v>340612.5355118271</v>
       </c>
     </row>
   </sheetData>
@@ -2773,28 +2773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>397.768692872626</v>
+        <v>444.823630912046</v>
       </c>
       <c r="AB2" t="n">
-        <v>544.2446739045594</v>
+        <v>608.6273160474492</v>
       </c>
       <c r="AC2" t="n">
-        <v>492.3027260793048</v>
+        <v>550.5407792176829</v>
       </c>
       <c r="AD2" t="n">
-        <v>397768.692872626</v>
+        <v>444823.630912046</v>
       </c>
       <c r="AE2" t="n">
-        <v>544244.6739045593</v>
+        <v>608627.3160474492</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.722029217618638e-06</v>
+        <v>3.282453453680784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.129050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>492302.7260793048</v>
+        <v>550540.7792176829</v>
       </c>
     </row>
     <row r="3">
@@ -2879,28 +2879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.1263244838293</v>
+        <v>295.0958321601297</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.4973837194828</v>
+        <v>403.7631362707909</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.0962299049672</v>
+        <v>365.2285492302268</v>
       </c>
       <c r="AD3" t="n">
-        <v>248126.3244838293</v>
+        <v>295095.8321601297</v>
       </c>
       <c r="AE3" t="n">
-        <v>339497.3837194828</v>
+        <v>403763.1362707909</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.25782717774468e-06</v>
+        <v>4.303767056665384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.961805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>307096.2299049672</v>
+        <v>365228.5492302268</v>
       </c>
     </row>
     <row r="4">
@@ -2985,28 +2985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.3710493101631</v>
+        <v>257.747526562886</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.2578799843418</v>
+        <v>352.6615368615207</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.2199349473427</v>
+        <v>319.0040147471381</v>
       </c>
       <c r="AD4" t="n">
-        <v>222371.0493101631</v>
+        <v>257747.526562886</v>
       </c>
       <c r="AE4" t="n">
-        <v>304257.8799843418</v>
+        <v>352661.5368615207</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.399681616386851e-06</v>
+        <v>4.574163509453135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.550925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>275219.9349473427</v>
+        <v>319004.0147471381</v>
       </c>
     </row>
   </sheetData>
@@ -3282,28 +3282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.9315241199426</v>
+        <v>228.3219411020658</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.450399306457</v>
+        <v>312.4001526688361</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.7344313727382</v>
+        <v>282.5851205545831</v>
       </c>
       <c r="AD2" t="n">
-        <v>196931.5241199426</v>
+        <v>228321.9411020658</v>
       </c>
       <c r="AE2" t="n">
-        <v>269450.399306457</v>
+        <v>312400.1526688361</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.496369150045556e-06</v>
+        <v>5.316612982465449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.025462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>243734.4313727382</v>
+        <v>282585.120554583</v>
       </c>
     </row>
   </sheetData>
@@ -3579,28 +3579,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.674208790999</v>
+        <v>285.3908007752112</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.669314381302</v>
+        <v>390.4842841741786</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.1106991141465</v>
+        <v>353.2170121407291</v>
       </c>
       <c r="AD2" t="n">
-        <v>241674.208790999</v>
+        <v>285390.8007752112</v>
       </c>
       <c r="AE2" t="n">
-        <v>330669.314381302</v>
+        <v>390484.2841741786</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.256022170631814e-06</v>
+        <v>4.580504984677719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.439236111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>299110.6991141465</v>
+        <v>353217.0121407291</v>
       </c>
     </row>
     <row r="3">
@@ -3685,28 +3685,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.0527151143627</v>
+        <v>241.8545584445919</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.9844622884776</v>
+        <v>330.9160767338128</v>
       </c>
       <c r="AC3" t="n">
-        <v>245.1220855368262</v>
+        <v>299.3339108140668</v>
       </c>
       <c r="AD3" t="n">
-        <v>198052.7151143627</v>
+        <v>241854.5584445919</v>
       </c>
       <c r="AE3" t="n">
-        <v>270984.4622884776</v>
+        <v>330916.0767338127</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.493055580523386e-06</v>
+        <v>5.06176475671242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.730324074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>245122.0855368262</v>
+        <v>299333.9108140668</v>
       </c>
     </row>
   </sheetData>
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.8274638210923</v>
+        <v>229.8428248084735</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.7303105965537</v>
+        <v>314.4810928525957</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.9420142870748</v>
+        <v>284.4674587278231</v>
       </c>
       <c r="AD2" t="n">
-        <v>189827.4638210923</v>
+        <v>229842.8248084735</v>
       </c>
       <c r="AE2" t="n">
-        <v>259730.3105965538</v>
+        <v>314481.0928525957</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.452470866140346e-06</v>
+        <v>5.461173592374291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.427662037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>234942.0142870749</v>
+        <v>284467.4587278231</v>
       </c>
     </row>
   </sheetData>
@@ -4279,28 +4279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>423.5784293305331</v>
+        <v>482.7939887679001</v>
       </c>
       <c r="AB2" t="n">
-        <v>579.5586939714789</v>
+        <v>660.5800347997924</v>
       </c>
       <c r="AC2" t="n">
-        <v>524.2464256345759</v>
+        <v>597.5352034084012</v>
       </c>
       <c r="AD2" t="n">
-        <v>423578.4293305331</v>
+        <v>482793.9887679002</v>
       </c>
       <c r="AE2" t="n">
-        <v>579558.6939714788</v>
+        <v>660580.0347997925</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.650403662659956e-06</v>
+        <v>3.120523283919491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.438657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>524246.4256345759</v>
+        <v>597535.2034084012</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.1274294963736</v>
+        <v>308.7592099877002</v>
       </c>
       <c r="AB3" t="n">
-        <v>373.7049985687156</v>
+        <v>422.4579726001602</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.0391180035762</v>
+        <v>382.1391766186886</v>
       </c>
       <c r="AD3" t="n">
-        <v>273127.4294963736</v>
+        <v>308759.2099877002</v>
       </c>
       <c r="AE3" t="n">
-        <v>373704.9985687155</v>
+        <v>422457.9726001602</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.194956647494811e-06</v>
+        <v>4.150144283285353e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.097800925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>338039.1180035762</v>
+        <v>382139.1766186886</v>
       </c>
     </row>
     <row r="4">
@@ -4491,28 +4491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.1734006996051</v>
+        <v>261.8904325369551</v>
       </c>
       <c r="AB4" t="n">
-        <v>309.460424903278</v>
+        <v>358.3300435875209</v>
       </c>
       <c r="AC4" t="n">
-        <v>279.925956281035</v>
+        <v>324.1315271469019</v>
       </c>
       <c r="AD4" t="n">
-        <v>226173.4006996051</v>
+        <v>261890.4325369551</v>
       </c>
       <c r="AE4" t="n">
-        <v>309460.424903278</v>
+        <v>358330.043587521</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.386147832896093e-06</v>
+        <v>4.511641630403028e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>279925.956281035</v>
+        <v>324131.5271469019</v>
       </c>
     </row>
     <row r="5">
@@ -4597,28 +4597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>226.9112680459782</v>
+        <v>262.6282998833282</v>
       </c>
       <c r="AB5" t="n">
-        <v>310.4700075589951</v>
+        <v>359.3396262432385</v>
       </c>
       <c r="AC5" t="n">
-        <v>280.8391857850488</v>
+        <v>325.0447566509159</v>
       </c>
       <c r="AD5" t="n">
-        <v>226911.2680459782</v>
+        <v>262628.2998833281</v>
       </c>
       <c r="AE5" t="n">
-        <v>310470.007558995</v>
+        <v>359339.6262432385</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.385394051821574e-06</v>
+        <v>4.510216408533232e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.530671296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>280839.1857850488</v>
+        <v>325044.756650916</v>
       </c>
     </row>
   </sheetData>
@@ -4894,28 +4894,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.5337422628693</v>
+        <v>225.7320982020639</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.2236954518557</v>
+        <v>308.8566153572502</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.8655041667112</v>
+        <v>279.3797734706279</v>
       </c>
       <c r="AD2" t="n">
-        <v>186533.7422628693</v>
+        <v>225732.0982020639</v>
       </c>
       <c r="AE2" t="n">
-        <v>255223.6954518557</v>
+        <v>308856.6153572502</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.395828262625722e-06</v>
+        <v>5.492596209255955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.780671296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>230865.5041667112</v>
+        <v>279379.7734706278</v>
       </c>
     </row>
   </sheetData>
@@ -5191,28 +5191,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.0603549533015</v>
+        <v>360.5562662739089</v>
       </c>
       <c r="AB2" t="n">
-        <v>431.0794771289924</v>
+        <v>493.3289901357983</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.9378568556468</v>
+        <v>446.2463637088232</v>
       </c>
       <c r="AD2" t="n">
-        <v>315060.3549533015</v>
+        <v>360556.2662739089</v>
       </c>
       <c r="AE2" t="n">
-        <v>431079.4771289924</v>
+        <v>493328.9901357983</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.966390221815583e-06</v>
+        <v>3.854097659375102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.237847222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>389937.8568556468</v>
+        <v>446246.3637088232</v>
       </c>
     </row>
     <row r="3">
@@ -5297,28 +5297,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.3340450065759</v>
+        <v>255.8298668186316</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.7883196610308</v>
+        <v>350.0377101982561</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.3222063461101</v>
+        <v>316.6306024180508</v>
       </c>
       <c r="AD3" t="n">
-        <v>210334.0450065759</v>
+        <v>255829.8668186316</v>
       </c>
       <c r="AE3" t="n">
-        <v>287788.3196610308</v>
+        <v>350037.7101982561</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.448681723172384e-06</v>
+        <v>4.799382336797628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>260322.2063461101</v>
+        <v>316630.6024180509</v>
       </c>
     </row>
     <row r="4">
@@ -5403,28 +5403,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.7189929308427</v>
+        <v>256.2148147428984</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.3150223937162</v>
+        <v>350.5644129309416</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.7986413092202</v>
+        <v>317.1070373811608</v>
       </c>
       <c r="AD4" t="n">
-        <v>210718.9929308427</v>
+        <v>256214.8147428984</v>
       </c>
       <c r="AE4" t="n">
-        <v>288315.0223937161</v>
+        <v>350564.4129309416</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.451872370291388e-06</v>
+        <v>4.805635961056342e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.605902777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>260798.6413092201</v>
+        <v>317107.0373811608</v>
       </c>
     </row>
   </sheetData>
@@ -5700,28 +5700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.2807587777883</v>
+        <v>419.4248042532396</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.3202727419596</v>
+        <v>573.8755208957202</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.1430396943263</v>
+        <v>519.1056466207842</v>
       </c>
       <c r="AD2" t="n">
-        <v>361280.7587777883</v>
+        <v>419424.8042532396</v>
       </c>
       <c r="AE2" t="n">
-        <v>494320.2727419595</v>
+        <v>573875.5208957202</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.798606207294551e-06</v>
+        <v>3.458185696698764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.822337962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>447143.0396943263</v>
+        <v>519105.6466207842</v>
       </c>
     </row>
     <row r="3">
@@ -5806,28 +5806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.2730261265371</v>
+        <v>280.7711943359867</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.5426897426555</v>
+        <v>384.1635348413791</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.9505453182022</v>
+        <v>347.4995062530247</v>
       </c>
       <c r="AD3" t="n">
-        <v>234273.0261265371</v>
+        <v>280771.1943359867</v>
       </c>
       <c r="AE3" t="n">
-        <v>320542.6897426555</v>
+        <v>384163.5348413792</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.325178696049658e-06</v>
+        <v>4.470628243323293e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.825810185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>289950.5453182022</v>
+        <v>347499.5062530247</v>
       </c>
     </row>
     <row r="4">
@@ -5912,28 +5912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.6240498668097</v>
+        <v>253.6470225193946</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.1310700399996</v>
+        <v>347.0510463277477</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.582420548564</v>
+        <v>313.9289815555337</v>
       </c>
       <c r="AD4" t="n">
-        <v>218624.0498668097</v>
+        <v>253647.0225193946</v>
       </c>
       <c r="AE4" t="n">
-        <v>299131.0700399996</v>
+        <v>347051.0463277476</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.416057835083844e-06</v>
+        <v>4.645361843964565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.568287037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>270582.4205485639</v>
+        <v>313928.9815555337</v>
       </c>
     </row>
   </sheetData>
@@ -6209,28 +6209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>492.7715422621522</v>
+        <v>553.1505681129793</v>
       </c>
       <c r="AB2" t="n">
-        <v>674.2317636692219</v>
+        <v>756.8450105729472</v>
       </c>
       <c r="AC2" t="n">
-        <v>609.8840304348543</v>
+        <v>684.6127850025082</v>
       </c>
       <c r="AD2" t="n">
-        <v>492771.5422621522</v>
+        <v>553150.5681129793</v>
       </c>
       <c r="AE2" t="n">
-        <v>674231.7636692219</v>
+        <v>756845.0105729472</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.514086254070611e-06</v>
+        <v>2.820627853305192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.11574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>609884.0304348542</v>
+        <v>684612.7850025082</v>
       </c>
     </row>
     <row r="3">
@@ -6315,28 +6315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>300.4520308288387</v>
+        <v>348.6528603857247</v>
       </c>
       <c r="AB3" t="n">
-        <v>411.0917235881269</v>
+        <v>477.0422250583795</v>
       </c>
       <c r="AC3" t="n">
-        <v>371.857706459733</v>
+        <v>431.513984631775</v>
       </c>
       <c r="AD3" t="n">
-        <v>300452.0308288387</v>
+        <v>348652.8603857247</v>
       </c>
       <c r="AE3" t="n">
-        <v>411091.7235881269</v>
+        <v>477042.2250583795</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.076978430551601e-06</v>
+        <v>3.86925328473046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.375578703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>371857.706459733</v>
+        <v>431513.9846317749</v>
       </c>
     </row>
     <row r="4">
@@ -6421,28 +6421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.3292396628473</v>
+        <v>293.6153205657569</v>
       </c>
       <c r="AB4" t="n">
-        <v>335.670288868744</v>
+        <v>401.7374349918084</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.6343876154204</v>
+        <v>363.3961780382207</v>
       </c>
       <c r="AD4" t="n">
-        <v>245329.2396628473</v>
+        <v>293615.3205657569</v>
       </c>
       <c r="AE4" t="n">
-        <v>335670.288868744</v>
+        <v>401737.4349918084</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.299160172740138e-06</v>
+        <v>4.283161018737029e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.663773148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>303634.3876154204</v>
+        <v>363396.1780382207</v>
       </c>
     </row>
     <row r="5">
@@ -6527,28 +6527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>234.4192452011916</v>
+        <v>270.7831523738748</v>
       </c>
       <c r="AB5" t="n">
-        <v>320.742753131328</v>
+        <v>370.4974551875052</v>
       </c>
       <c r="AC5" t="n">
-        <v>290.1315149378506</v>
+        <v>335.137698060853</v>
       </c>
       <c r="AD5" t="n">
-        <v>234419.2452011916</v>
+        <v>270783.1523738748</v>
       </c>
       <c r="AE5" t="n">
-        <v>320742.753131328</v>
+        <v>370497.4551875052</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.353951238540743e-06</v>
+        <v>4.385232618617134e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.507523148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>290131.5149378506</v>
+        <v>335137.6980608531</v>
       </c>
     </row>
   </sheetData>
@@ -6824,28 +6824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.6604288334237</v>
+        <v>306.1423627898599</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.0153423733022</v>
+        <v>418.8774868169247</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.8468605748823</v>
+        <v>378.9004073733618</v>
       </c>
       <c r="AD2" t="n">
-        <v>261660.4288334238</v>
+        <v>306142.3627898599</v>
       </c>
       <c r="AE2" t="n">
-        <v>358015.3423733022</v>
+        <v>418877.4868169246</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.153392032777583e-06</v>
+        <v>4.316468633903991e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.69675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>323846.8605748823</v>
+        <v>378900.4073733618</v>
       </c>
     </row>
     <row r="3">
@@ -6930,28 +6930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.941685091346</v>
+        <v>246.33827819321</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.3055225802301</v>
+        <v>337.0508999016237</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.9353113024905</v>
+        <v>304.8832350690222</v>
       </c>
       <c r="AD3" t="n">
-        <v>201941.685091346</v>
+        <v>246338.27819321</v>
       </c>
       <c r="AE3" t="n">
-        <v>276305.5225802301</v>
+        <v>337050.8999016237</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.481497962452657e-06</v>
+        <v>4.974156102085798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.67824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>249935.3113024905</v>
+        <v>304883.2350690222</v>
       </c>
     </row>
   </sheetData>
@@ -7227,28 +7227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.9136964534148</v>
+        <v>235.4093516263308</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.9530302390697</v>
+        <v>322.0974604226154</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.7617234935347</v>
+        <v>291.3569308666015</v>
       </c>
       <c r="AD2" t="n">
-        <v>192913.6964534148</v>
+        <v>235409.3516263308</v>
       </c>
       <c r="AE2" t="n">
-        <v>263953.0302390697</v>
+        <v>322097.4604226154</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.477335882795092e-06</v>
+        <v>5.182741594232994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.967592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>238761.7234935347</v>
+        <v>291356.9308666015</v>
       </c>
     </row>
     <row r="3">
@@ -7333,28 +7333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.1513306046699</v>
+        <v>233.6469857775859</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.5416835347244</v>
+        <v>319.68611371827</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.5805123343049</v>
+        <v>289.1757197073718</v>
       </c>
       <c r="AD3" t="n">
-        <v>191151.3306046699</v>
+        <v>233646.9857775859</v>
       </c>
       <c r="AE3" t="n">
-        <v>261541.6835347243</v>
+        <v>319686.11371827</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.499528459696305e-06</v>
+        <v>5.229169852987863e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.906828703703705</v>
       </c>
       <c r="AH3" t="n">
-        <v>236580.5123343049</v>
+        <v>289175.7197073718</v>
       </c>
     </row>
   </sheetData>
@@ -12371,28 +12371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.8489813013259</v>
+        <v>223.6452264185586</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.8644841129508</v>
+        <v>306.0012653167743</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.6816280854173</v>
+        <v>276.7969340305052</v>
       </c>
       <c r="AD2" t="n">
-        <v>192848.981301326</v>
+        <v>223645.2264185586</v>
       </c>
       <c r="AE2" t="n">
-        <v>263864.4841129509</v>
+        <v>306001.2653167743</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.486968182810335e-06</v>
+        <v>5.406310133652586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.178819444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>238681.6280854173</v>
+        <v>276796.9340305051</v>
       </c>
     </row>
   </sheetData>
@@ -12668,28 +12668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.1487340170555</v>
+        <v>233.1129920351967</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.0111072365397</v>
+        <v>318.9554799217922</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.5279419144051</v>
+        <v>288.5148165749786</v>
       </c>
       <c r="AD2" t="n">
-        <v>195148.7340170555</v>
+        <v>233112.9920351967</v>
       </c>
       <c r="AE2" t="n">
-        <v>267011.1072365397</v>
+        <v>318955.4799217922</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.267814463125565e-06</v>
+        <v>5.394057848811743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.451967592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>241527.9419144051</v>
+        <v>288514.8165749786</v>
       </c>
     </row>
   </sheetData>
@@ -12965,28 +12965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.0951440937228</v>
+        <v>383.2735101529087</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.2284477372059</v>
+        <v>524.411725425113</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.2094520233582</v>
+        <v>474.3626063670188</v>
       </c>
       <c r="AD2" t="n">
-        <v>337095.1440937227</v>
+        <v>383273.5101529087</v>
       </c>
       <c r="AE2" t="n">
-        <v>461228.4477372059</v>
+        <v>524411.725425113</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.882423872156828e-06</v>
+        <v>3.652990720033115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>417209.4520233582</v>
+        <v>474362.6063670188</v>
       </c>
     </row>
     <row r="3">
@@ -13071,28 +13071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.1681309144161</v>
+        <v>267.1758152644615</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.6119939662674</v>
+        <v>365.5617374099245</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.7311299808172</v>
+        <v>330.6730382606414</v>
       </c>
       <c r="AD3" t="n">
-        <v>221168.1309144161</v>
+        <v>267175.8152644615</v>
       </c>
       <c r="AE3" t="n">
-        <v>302611.9939662674</v>
+        <v>365561.7374099245</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.393646834112376e-06</v>
+        <v>4.645058852781419e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.695601851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>273731.1299808172</v>
+        <v>330673.0382606414</v>
       </c>
     </row>
     <row r="4">
@@ -13177,28 +13177,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.3581304650736</v>
+        <v>249.0132402231055</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.2942509154655</v>
+        <v>340.7109009619209</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.3026592492465</v>
+        <v>308.1939307649695</v>
       </c>
       <c r="AD4" t="n">
-        <v>214358.1304650736</v>
+        <v>249013.2402231055</v>
       </c>
       <c r="AE4" t="n">
-        <v>293294.2509154655</v>
+        <v>340710.9009619209</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.437075028084979e-06</v>
+        <v>4.729334659052378e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.576967592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>265302.6592492465</v>
+        <v>308193.9307649696</v>
       </c>
     </row>
   </sheetData>
@@ -13474,28 +13474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>450.6628208290467</v>
+        <v>510.596974349669</v>
       </c>
       <c r="AB2" t="n">
-        <v>616.6167532987678</v>
+        <v>698.6213062539248</v>
       </c>
       <c r="AC2" t="n">
-        <v>557.7677157909812</v>
+        <v>631.945869306211</v>
       </c>
       <c r="AD2" t="n">
-        <v>450662.8208290467</v>
+        <v>510596.9743496691</v>
       </c>
       <c r="AE2" t="n">
-        <v>616616.7532987677</v>
+        <v>698621.3062539247</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582300602284835e-06</v>
+        <v>2.96901655445582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.762731481481483</v>
       </c>
       <c r="AH2" t="n">
-        <v>557767.7157909812</v>
+        <v>631945.869306211</v>
       </c>
     </row>
     <row r="3">
@@ -13580,28 +13580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.2161680852381</v>
+        <v>322.1767497061626</v>
       </c>
       <c r="AB3" t="n">
-        <v>391.6135881403932</v>
+        <v>440.8164423830358</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.2385369213963</v>
+        <v>398.7455398117607</v>
       </c>
       <c r="AD3" t="n">
-        <v>286216.1680852381</v>
+        <v>322176.7497061626</v>
       </c>
       <c r="AE3" t="n">
-        <v>391613.5881403933</v>
+        <v>440816.4423830358</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.138718693510997e-06</v>
+        <v>4.01307513704353e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>354238.5369213963</v>
+        <v>398745.5398117607</v>
       </c>
     </row>
     <row r="4">
@@ -13686,28 +13686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.0036561316877</v>
+        <v>270.0494890986357</v>
       </c>
       <c r="AB4" t="n">
-        <v>320.1741258319373</v>
+        <v>369.4936247273836</v>
       </c>
       <c r="AC4" t="n">
-        <v>289.6171566298402</v>
+        <v>334.2296717709607</v>
       </c>
       <c r="AD4" t="n">
-        <v>234003.6561316877</v>
+        <v>270049.4890986357</v>
       </c>
       <c r="AE4" t="n">
-        <v>320174.1258319373</v>
+        <v>369493.6247273836</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.349830891400431e-06</v>
+        <v>4.409204424661947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.574074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>289617.1566298401</v>
+        <v>334229.6717709607</v>
       </c>
     </row>
     <row r="5">
@@ -13792,28 +13792,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>230.1428034273223</v>
+        <v>266.1886363942702</v>
       </c>
       <c r="AB5" t="n">
-        <v>314.8915368330271</v>
+        <v>364.2110357284707</v>
       </c>
       <c r="AC5" t="n">
-        <v>284.838730510824</v>
+        <v>329.4512456519437</v>
       </c>
       <c r="AD5" t="n">
-        <v>230142.8034273223</v>
+        <v>266188.6363942702</v>
       </c>
       <c r="AE5" t="n">
-        <v>314891.5368330271</v>
+        <v>364211.0357284707</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.372783671449093e-06</v>
+        <v>4.45227284278481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>284838.730510824</v>
+        <v>329451.2456519437</v>
       </c>
     </row>
   </sheetData>
@@ -14089,28 +14089,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.2405365768988</v>
+        <v>252.0415013930651</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.1874008347031</v>
+        <v>344.8543014921116</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.2558313516264</v>
+        <v>311.9418909638594</v>
       </c>
       <c r="AD2" t="n">
-        <v>206240.5365768988</v>
+        <v>252041.5013930651</v>
       </c>
       <c r="AE2" t="n">
-        <v>282187.4008347031</v>
+        <v>344854.3014921116</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.007648724890915e-06</v>
+        <v>5.020977101430698e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.884259259259258</v>
       </c>
       <c r="AH2" t="n">
-        <v>255255.8313516264</v>
+        <v>311941.8909638594</v>
       </c>
     </row>
   </sheetData>
@@ -14386,28 +14386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.5213219604661</v>
+        <v>253.9632523920454</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.0952455371619</v>
+        <v>347.4837259905855</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.1682607000336</v>
+        <v>314.3203668786202</v>
       </c>
       <c r="AD2" t="n">
-        <v>221521.321960466</v>
+        <v>253963.2523920454</v>
       </c>
       <c r="AE2" t="n">
-        <v>303095.2455371619</v>
+        <v>347483.7259905855</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.370504817424003e-06</v>
+        <v>4.881541357913044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.175925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>274168.2607000336</v>
+        <v>314320.3668786202</v>
       </c>
     </row>
     <row r="3">
@@ -14492,28 +14492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.4021417839231</v>
+        <v>237.5725888267226</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.9895868058438</v>
+        <v>325.0572969954797</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.6039139599015</v>
+        <v>294.0342847911094</v>
       </c>
       <c r="AD3" t="n">
-        <v>194402.1417839231</v>
+        <v>237572.5888267226</v>
       </c>
       <c r="AE3" t="n">
-        <v>265989.5868058437</v>
+        <v>325057.2969954797</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.499603063563008e-06</v>
+        <v>5.147391240659294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.805555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>240603.9139599015</v>
+        <v>294034.2847911094</v>
       </c>
     </row>
   </sheetData>
@@ -14789,28 +14789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.5870993207069</v>
+        <v>338.7229542554314</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.6481361535473</v>
+        <v>463.4556894143716</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.7469807031193</v>
+        <v>419.2241288808087</v>
       </c>
       <c r="AD2" t="n">
-        <v>282587.0993207069</v>
+        <v>338722.9542554314</v>
       </c>
       <c r="AE2" t="n">
-        <v>386648.1361535473</v>
+        <v>463455.6894143716</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.054698813075692e-06</v>
+        <v>4.070736642964593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.971643518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>349746.9807031193</v>
+        <v>419224.1288808087</v>
       </c>
     </row>
     <row r="3">
@@ -14895,28 +14895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.8792101416433</v>
+        <v>250.8390986021653</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.6930180653894</v>
+        <v>343.2091209473359</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.8086317799454</v>
+        <v>310.4537241412511</v>
       </c>
       <c r="AD3" t="n">
-        <v>205879.2101416433</v>
+        <v>250839.0986021653</v>
       </c>
       <c r="AE3" t="n">
-        <v>281693.0180653894</v>
+        <v>343209.1209473359</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.465276334701251e-06</v>
+        <v>4.884166305464323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.643518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>254808.6317799454</v>
+        <v>310453.7241412511</v>
       </c>
     </row>
   </sheetData>
